--- a/12. alkalom/adatmodellezés.xlsx
+++ b/12. alkalom/adatmodellezés.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\2022_oktober_python\12. alkalom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701BA4C4-4CA1-4878-89F4-EA73F950F739}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF89277-5431-4C3B-B29D-DA678B84D122}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10605" xr2:uid="{9AAB5B67-9F43-45BE-897D-1DA22AEC3BA4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10605" activeTab="1" xr2:uid="{9AAB5B67-9F43-45BE-897D-1DA22AEC3BA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
+    <sheet name="Munka2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="53">
   <si>
     <t>HR</t>
   </si>
@@ -139,13 +140,58 @@
   </si>
   <si>
     <t>jobs</t>
+  </si>
+  <si>
+    <t>személyes adatok</t>
+  </si>
+  <si>
+    <t>pozícióval kapcsolatos adatok</t>
+  </si>
+  <si>
+    <t>department-el</t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>birth_day</t>
+  </si>
+  <si>
+    <t>job_id</t>
+  </si>
+  <si>
+    <t>job_name</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>department_id</t>
+  </si>
+  <si>
+    <t>department_name</t>
+  </si>
+  <si>
+    <t>leader_id (employyee_id)</t>
+  </si>
+  <si>
+    <t>hr_workers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,8 +217,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,6 +278,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -314,10 +374,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -634,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52F8B92-FA03-402A-80C9-1C84ABACAC2B}">
   <dimension ref="C4:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,7 +866,7 @@
       <c r="D13" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="23" t="s">
         <v>32</v>
       </c>
     </row>
@@ -818,7 +883,7 @@
       <c r="G14" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="30" t="s">
         <v>27</v>
       </c>
     </row>
@@ -835,13 +900,13 @@
       <c r="G15" s="19">
         <v>44835</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="31">
         <v>100</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="24">
         <v>1</v>
       </c>
-      <c r="J15" s="26" t="s">
+      <c r="J15" s="25" t="s">
         <v>36</v>
       </c>
     </row>
@@ -858,13 +923,13 @@
       <c r="G16" s="19">
         <v>41315</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="31">
         <v>200</v>
       </c>
-      <c r="I16" s="25">
+      <c r="I16" s="24">
         <v>2</v>
       </c>
-      <c r="J16" s="25" t="s">
+      <c r="J16" s="24" t="s">
         <v>37</v>
       </c>
     </row>
@@ -881,13 +946,13 @@
       <c r="G17" s="19">
         <v>43925</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="31">
         <v>300</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17" s="24">
         <v>3</v>
       </c>
-      <c r="J17" s="25"/>
+      <c r="J17" s="24"/>
     </row>
     <row r="18" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D18" s="18">
@@ -902,13 +967,13 @@
       <c r="G18" s="19">
         <v>41922</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="31">
         <v>400</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I18" s="24">
         <v>4</v>
       </c>
-      <c r="J18" s="25"/>
+      <c r="J18" s="24"/>
     </row>
     <row r="19" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D19" s="18">
@@ -923,7 +988,7 @@
       <c r="G19" s="19">
         <v>44354</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="31">
         <v>500</v>
       </c>
     </row>
@@ -1084,4 +1149,450 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FE1D20-837D-48C6-9DD7-853C3A817A34}">
+  <dimension ref="B3:I35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5">
+        <v>90000</v>
+      </c>
+      <c r="E5" s="7">
+        <v>44835</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3">
+        <v>33132</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5">
+        <v>24000</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="3">
+        <v>28783</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5">
+        <v>110000</v>
+      </c>
+      <c r="E7" s="7">
+        <v>43925</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="3">
+        <v>24434</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="5">
+        <v>45000</v>
+      </c>
+      <c r="E8" s="7">
+        <v>41922</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="3">
+        <v>20085</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="5">
+        <v>78000</v>
+      </c>
+      <c r="E9" s="7">
+        <v>44354</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="3">
+        <v>15736</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="10">
+        <v>90000</v>
+      </c>
+      <c r="F13" s="28">
+        <v>44835</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="27">
+        <v>33132</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="10">
+        <v>24000</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="27">
+        <v>28783</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="10">
+        <v>110000</v>
+      </c>
+      <c r="F15" s="28">
+        <v>43925</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="27">
+        <v>24434</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="10">
+        <v>45000</v>
+      </c>
+      <c r="F16" s="28">
+        <v>41922</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="27">
+        <v>20085</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="10">
+        <v>78000</v>
+      </c>
+      <c r="F17" s="28">
+        <v>44354</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="27">
+        <v>15736</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="10">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C20" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>